--- a/docs/RulesExample.xlsx
+++ b/docs/RulesExample.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="17100" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16695" windowHeight="6420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Привет=100" sheetId="1" r:id="rId1"/>
     <sheet name="ПравилаПриветствия" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Привет</t>
   </si>
@@ -69,55 +68,61 @@
     <t>Да</t>
   </si>
   <si>
+    <t>Ответ=Мы уже здоровались| Привет еще раз | С хорошим человеком можно и несколько раз поздороваться</t>
+  </si>
+  <si>
+    <t>Ответ=Привет | Доброго времени суток</t>
+  </si>
+  <si>
+    <t>До свидания</t>
+  </si>
+  <si>
+    <t>Пока</t>
+  </si>
+  <si>
+    <t>Прощай</t>
+  </si>
+  <si>
+    <t>прощание=да</t>
+  </si>
+  <si>
+    <t>прощание</t>
+  </si>
+  <si>
+    <t>прощание было</t>
+  </si>
+  <si>
+    <t>Правило3</t>
+  </si>
+  <si>
+    <t>Правило4</t>
+  </si>
+  <si>
+    <t>Ответ=Пока | До встречи</t>
+  </si>
+  <si>
+    <t>Ответ=Ну еще раз пока</t>
+  </si>
+  <si>
+    <t>Ответ</t>
+  </si>
+  <si>
+    <t>Запрос</t>
+  </si>
+  <si>
+    <t>прощание было=да</t>
+  </si>
+  <si>
+    <t>приветствие было=да</t>
+  </si>
+  <si>
     <t>Нет</t>
   </si>
   <si>
-    <t>привествие было=да</t>
-  </si>
-  <si>
-    <t>Ответ=Мы уже здоровались| Привет еще раз | С хорошим человеком можно и несколько раз поздороваться</t>
-  </si>
-  <si>
-    <t>Ответ=Привет | Доброго времени суток</t>
-  </si>
-  <si>
-    <t>До свидания</t>
-  </si>
-  <si>
-    <t>Пока</t>
-  </si>
-  <si>
-    <t>Прощай</t>
-  </si>
-  <si>
-    <t>прощание=да</t>
-  </si>
-  <si>
-    <t>прощание</t>
-  </si>
-  <si>
-    <t>прощание было</t>
-  </si>
-  <si>
-    <t>Правило3</t>
-  </si>
-  <si>
-    <t>Правило4</t>
-  </si>
-  <si>
-    <t>Ответ=Пока | До встречи</t>
-  </si>
-  <si>
-    <t>Ответ=Ну еще раз пока</t>
-  </si>
-  <si>
-    <t>Ответ</t>
-  </si>
-  <si>
-    <t>Запрос</t>
-  </si>
-  <si>
-    <t>прощание было=да</t>
+    <t>приветствие=нет</t>
+  </si>
+  <si>
+    <t>прощание=нет</t>
   </si>
 </sst>
 </file>
@@ -474,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -495,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -504,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -546,26 +551,26 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>100</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -576,10 +581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,10 +605,10 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -622,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -630,7 +635,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -641,10 +646,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -657,7 +662,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -665,7 +670,7 @@
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -673,7 +678,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -684,7 +689,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -692,7 +697,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -700,12 +705,34 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
         <v>16</v>
       </c>
     </row>
